--- a/biology/Zoologie/Coleophora_albovanescens/Coleophora_albovanescens.xlsx
+++ b/biology/Zoologie/Coleophora_albovanescens/Coleophora_albovanescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleophora albovanescens est une espèce de microlépidoptères de la famille des Coleophoridae. On le trouve en Amérique du Nord, plus particulièrement dans les États de New York et de la Nouvelle-Écosse.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Coleophora albovanescens a été décrite en 1926 par Carl Heinrich (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La larve se nourrit sur  Betula, Fagus, Fraxinus, Tilia et Charme-houblon. Elle se fabrique un cocon en forme de pistolet.
 </t>
